--- a/public/files/Data_By_Towns_Index/Monmouth/Belmar Borough.xlsx
+++ b/public/files/Data_By_Towns_Index/Monmouth/Belmar Borough.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -452,11 +457,21 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Search</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,10 +493,16 @@
         <is>
           <t>Kumar</t>
         </is>
+      </c>
+      <c r="F2" t="n">
+        <v>40.1793922</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-74.0285839</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -503,10 +524,16 @@
         <is>
           <t>Kumar</t>
         </is>
+      </c>
+      <c r="F3" t="n">
+        <v>40.1793922</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-74.0285839</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +555,16 @@
         <is>
           <t>Lakhani</t>
         </is>
+      </c>
+      <c r="F4" t="n">
+        <v>40.175424</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-74.01426499999999</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -553,10 +586,16 @@
         <is>
           <t>Patel</t>
         </is>
+      </c>
+      <c r="F5" t="n">
+        <v>40.1782119</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-74.0292771</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,6 +617,12 @@
         <is>
           <t>Patel</t>
         </is>
+      </c>
+      <c r="F6" t="n">
+        <v>40.1739069</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74.01481849999999</v>
       </c>
     </row>
   </sheetData>
